--- a/BPS_FH_Dataset/5/phrases.xlsx
+++ b/BPS_FH_Dataset/5/phrases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Data Set\BPS Dataset\5non\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Documents\GitHub\functional-harmony\BPS_FH_Dataset\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BDC83B-4B4F-49AE-B8EE-109A50A0B68B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -213,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -590,21 +591,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9" style="5"/>
     <col min="3" max="5" width="9" style="8"/>
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="5">
         <v>0</v>
       </c>
@@ -621,7 +622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>12</v>
       </c>
@@ -638,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>24</v>
       </c>
@@ -655,7 +656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>49</v>
       </c>
@@ -672,7 +673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>63</v>
       </c>
@@ -689,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>69</v>
       </c>
@@ -706,7 +707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>75</v>
       </c>
@@ -723,7 +724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>93</v>
       </c>
@@ -740,7 +741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>108</v>
       </c>
@@ -757,7 +758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>120</v>
       </c>
@@ -774,7 +775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>132</v>
       </c>
@@ -791,7 +792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>141</v>
       </c>
@@ -808,7 +809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>165</v>
       </c>
@@ -825,7 +826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>177</v>
       </c>
@@ -842,7 +843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>189</v>
       </c>
@@ -859,7 +860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>201</v>
       </c>
@@ -876,7 +877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>225</v>
       </c>
@@ -893,7 +894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>282</v>
       </c>
@@ -910,7 +911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="9">
         <v>294</v>
       </c>
@@ -927,7 +928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>315</v>
       </c>
@@ -944,7 +945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>327</v>
       </c>
@@ -961,7 +962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>339</v>
       </c>
@@ -978,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>364</v>
       </c>
@@ -995,7 +996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>378</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>384</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>390</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>408</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>423</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>435</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>447</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>456</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>480</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>492</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>504</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>516</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>540</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>597</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>609</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>630</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>642</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>654</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>666</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>689</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>713</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>720</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>738</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>749</v>
       </c>
@@ -1403,9 +1404,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
-        <v>791</v>
+        <v>761</v>
       </c>
       <c r="B48" s="4">
         <v>787</v>
@@ -1420,7 +1421,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="7">
         <v>788</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
         <v>816</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="4">
         <v>828</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>840</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>865</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>885</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
         <v>900</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>912</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>924</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="4">
         <v>933</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="4">
         <v>957</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="4">
         <v>969</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="4">
         <v>981</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
         <v>993</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>1011</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>1023</v>
       </c>
@@ -1692,7 +1693,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
         <v>1035</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>1047</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
         <v>1071</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>1128</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <v>1140</v>
       </c>
@@ -1777,138 +1778,138 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
     </row>
